--- a/data/trans_orig/P14B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F347A8-1E97-4F58-9002-E8AF12C7D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8C34C1-0838-47B5-81BC-FC7B297623A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F9D4175-553D-4666-B270-D2B4836F6600}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21B8C9D-2644-499A-B4C7-2E36B9A1C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="463">
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2012 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>84,96%</t>
   </si>
   <si>
-    <t>56,38%</t>
+    <t>55,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,16 +94,16 @@
     <t>90,66%</t>
   </si>
   <si>
-    <t>72,04%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>15,04%</t>
@@ -112,22 +112,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,62%</t>
+    <t>44,75%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>27,96%</t>
+    <t>28,52%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -196,55 +196,55 @@
     <t>75,77%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,49 +253,49 @@
     <t>51,87%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>44,42%</t>
+    <t>50,39%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>55,58%</t>
+    <t>49,61%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -322,10 +322,10 @@
     <t>67,53%</t>
   </si>
   <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>30,68%</t>
@@ -349,10 +349,10 @@
     <t>32,47%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -361,10 +361,10 @@
     <t>72,69%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>42,46%</t>
@@ -379,1030 +379,1054 @@
     <t>60,77%</t>
   </si>
   <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo trastorno cardíaco le limita en 2015 (Tasa respuesta: 4,05%)</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
     <t>45,53%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2015 (Tasa respuesta: 4,05%)</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>60,57%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,88%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>42,12%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1376E8-FE66-42AD-9A10-5ACF777B8560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C885E3-23ED-4C21-B31D-32D52149D29C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3181,7 +3205,7 @@
         <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>184</v>
@@ -3190,13 +3214,13 @@
         <v>197385</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3235,13 @@
         <v>36034</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -3226,28 +3250,28 @@
         <v>41257</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
       </c>
       <c r="N29" s="7">
-        <v>77290</v>
+        <v>77291</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,7 +3313,7 @@
         <v>257</v>
       </c>
       <c r="N30" s="7">
-        <v>274675</v>
+        <v>274676</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3303,7 +3327,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D36FCD6-E621-4915-9BFE-93A08F93DAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122475F-2959-4CB1-BA5D-CF0BC61D170F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3344,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3451,13 +3475,13 @@
         <v>5200</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3466,13 +3490,13 @@
         <v>7641</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3481,13 +3505,13 @@
         <v>12841</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3526,13 @@
         <v>3619</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3517,13 +3541,13 @@
         <v>3870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3532,13 +3556,13 @@
         <v>7489</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3630,13 @@
         <v>17687</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3621,13 +3645,13 @@
         <v>19140</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3636,13 +3660,13 @@
         <v>36827</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3681,13 @@
         <v>2780</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3672,13 +3696,13 @@
         <v>6242</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3687,13 +3711,13 @@
         <v>9022</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3785,13 @@
         <v>9038</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3776,13 +3800,13 @@
         <v>5474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3791,13 +3815,13 @@
         <v>14513</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3836,13 @@
         <v>7588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3827,13 +3851,13 @@
         <v>2813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -3842,13 +3866,13 @@
         <v>10400</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3940,13 @@
         <v>10566</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3931,13 +3955,13 @@
         <v>26881</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3946,13 +3970,13 @@
         <v>37447</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3991,13 @@
         <v>3720</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3982,13 +4006,13 @@
         <v>8411</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3997,13 +4021,13 @@
         <v>12131</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,7 +4098,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>30</v>
@@ -4089,7 +4113,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -4104,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>30</v>
@@ -4125,10 +4149,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4140,10 +4164,10 @@
         <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4155,10 +4179,10 @@
         <v>23</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,10 +4250,10 @@
         <v>5666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4241,10 +4265,10 @@
         <v>14040</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4256,10 +4280,10 @@
         <v>19706</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4277,13 +4301,13 @@
         <v>826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4292,7 +4316,7 @@
         <v>1012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
@@ -4697,7 +4721,7 @@
         <v>287</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="H28" s="7">
         <v>103</v>
@@ -4706,13 +4730,13 @@
         <v>119632</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M28" s="7">
         <v>197</v>
@@ -4721,13 +4745,13 @@
         <v>212885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4766,13 @@
         <v>34304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -4757,13 +4781,13 @@
         <v>39896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M29" s="7">
         <v>69</v>
@@ -4772,13 +4796,13 @@
         <v>74200</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4858,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4858,7 +4882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86F638A-1927-427D-9141-2327AB7A3217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD95887-C90A-4EEC-9785-0E0EF2D78AA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4875,7 +4899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4982,13 +5006,13 @@
         <v>6851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4997,13 +5021,13 @@
         <v>537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5012,13 +5036,13 @@
         <v>7388</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5057,13 @@
         <v>5990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5048,10 +5072,10 @@
         <v>9195</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -5063,13 +5087,13 @@
         <v>15184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5161,13 @@
         <v>25548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5152,13 +5176,13 @@
         <v>18396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5167,13 +5191,13 @@
         <v>43943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5212,13 @@
         <v>4264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5203,13 +5227,13 @@
         <v>6041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5218,13 +5242,13 @@
         <v>10305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5316,13 @@
         <v>16015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5307,13 +5331,13 @@
         <v>18366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5322,13 +5346,13 @@
         <v>34381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5367,13 @@
         <v>4401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5358,13 +5382,13 @@
         <v>5979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5373,13 +5397,13 @@
         <v>10379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5471,13 @@
         <v>15170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5462,13 +5486,13 @@
         <v>15106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5477,13 +5501,13 @@
         <v>30276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5522,13 @@
         <v>4614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5513,13 +5537,13 @@
         <v>3092</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5528,13 +5552,13 @@
         <v>7706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5626,13 @@
         <v>3243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5617,13 +5641,13 @@
         <v>2352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5632,13 +5656,13 @@
         <v>5595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5677,13 @@
         <v>3338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5668,13 +5692,13 @@
         <v>5211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5683,13 +5707,13 @@
         <v>8549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5781,13 @@
         <v>13695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5772,13 +5796,13 @@
         <v>9428</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -5787,13 +5811,13 @@
         <v>23122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5832,13 @@
         <v>8112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5823,13 +5847,13 @@
         <v>8434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -5838,13 +5862,13 @@
         <v>16547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5936,13 @@
         <v>26780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5927,13 +5951,13 @@
         <v>24938</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5942,13 +5966,13 @@
         <v>51717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5987,13 @@
         <v>14665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -5978,13 +6002,13 @@
         <v>11496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -5993,13 +6017,13 @@
         <v>26161</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6091,13 @@
         <v>10232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -6082,13 +6106,13 @@
         <v>12941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -6097,13 +6121,13 @@
         <v>23172</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6142,13 @@
         <v>23825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6133,13 +6157,13 @@
         <v>11770</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6148,13 +6172,13 @@
         <v>35595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6246,13 @@
         <v>117531</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>173</v>
@@ -6237,13 +6261,13 @@
         <v>102065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>327</v>
@@ -6252,13 +6276,13 @@
         <v>219596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6297,13 @@
         <v>69210</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -6288,13 +6312,13 @@
         <v>61216</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -6303,13 +6327,13 @@
         <v>130426</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6389,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8C34C1-0838-47B5-81BC-FC7B297623A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B1FCEA-47C6-456E-B8CE-F4EC8B34D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21B8C9D-2644-499A-B4C7-2E36B9A1C96A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3768C9D-592A-462A-8D40-9D4A3252F6F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="461">
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2012 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>84,96%</t>
   </si>
   <si>
-    <t>55,25%</t>
+    <t>54,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,16 +94,16 @@
     <t>90,66%</t>
   </si>
   <si>
-    <t>71,48%</t>
+    <t>71,94%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>15,04%</t>
@@ -112,22 +112,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>44,75%</t>
+    <t>45,43%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>28,52%</t>
+    <t>28,06%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>67,6%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>72,67%</t>
   </si>
   <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -196,55 +196,55 @@
     <t>75,77%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -256,28 +256,28 @@
     <t>17,14%</t>
   </si>
   <si>
-    <t>84,78%</t>
+    <t>84,75%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>50,39%</t>
+    <t>51,75%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>82,86%</t>
@@ -286,16 +286,16 @@
     <t>19,25%</t>
   </si>
   <si>
-    <t>49,61%</t>
+    <t>48,25%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -304,55 +304,55 @@
     <t>69,32%</t>
   </si>
   <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>66,16%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -361,55 +361,55 @@
     <t>72,69%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -418,538 +418,544 @@
     <t>65,69%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo trastorno cardíaco le limita en 2016 (Tasa respuesta: 4,05%)</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
     <t>54,68%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2015 (Tasa respuesta: 4,05%)</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>67,61%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>32,39%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
@@ -1129,9 +1135,6 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
     <t>67,06%</t>
   </si>
   <si>
@@ -1156,9 +1159,6 @@
     <t>32,21%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
     <t>11,0%</t>
   </si>
   <si>
@@ -1330,9 +1330,6 @@
     <t>45,22%</t>
   </si>
   <si>
-    <t>52,37%</t>
-  </si>
-  <si>
     <t>35,19%</t>
   </si>
   <si>
@@ -1355,9 +1352,6 @@
   </si>
   <si>
     <t>82,18%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
   </si>
   <si>
     <t>32,51%</t>
@@ -1838,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C885E3-23ED-4C21-B31D-32D52149D29C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B119C1-5122-4A3E-927B-74DBE8EA46FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3205,7 +3199,7 @@
         <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>184</v>
@@ -3214,13 +3208,13 @@
         <v>197385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3229,13 @@
         <v>36034</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -3250,13 +3244,13 @@
         <v>41257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -3265,13 +3259,13 @@
         <v>77291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122475F-2959-4CB1-BA5D-CF0BC61D170F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F31C99-33C2-4D04-B409-CE47F9F15055}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3475,13 +3469,13 @@
         <v>5200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3490,13 +3484,13 @@
         <v>7641</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3505,13 +3499,13 @@
         <v>12841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3520,13 @@
         <v>3619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3541,13 +3535,13 @@
         <v>3870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3556,13 +3550,13 @@
         <v>7489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3624,13 @@
         <v>17687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3645,13 +3639,13 @@
         <v>19140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3660,13 +3654,13 @@
         <v>36827</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3675,13 @@
         <v>2780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3696,13 +3690,13 @@
         <v>6242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3711,13 +3705,13 @@
         <v>9022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3779,13 @@
         <v>9038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3800,13 +3794,13 @@
         <v>5474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3815,13 +3809,13 @@
         <v>14513</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3830,13 @@
         <v>7588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3851,13 +3845,13 @@
         <v>2813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -3866,13 +3860,13 @@
         <v>10400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3934,13 @@
         <v>10566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3955,13 +3949,13 @@
         <v>26881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3970,13 +3964,13 @@
         <v>37447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3985,13 @@
         <v>3720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4006,13 +4000,13 @@
         <v>8411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4021,13 +4015,13 @@
         <v>12131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4092,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>30</v>
@@ -4113,7 +4107,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -4128,7 +4122,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>30</v>
@@ -4149,10 +4143,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4164,10 +4158,10 @@
         <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4179,10 +4173,10 @@
         <v>23</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +4244,10 @@
         <v>5666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4265,10 +4259,10 @@
         <v>14040</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4280,10 +4274,10 @@
         <v>19706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4301,13 +4295,13 @@
         <v>826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4316,13 +4310,13 @@
         <v>1012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4331,13 +4325,13 @@
         <v>1838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4399,13 @@
         <v>17448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4420,13 +4414,13 @@
         <v>21581</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -4435,13 +4429,13 @@
         <v>39029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4450,13 @@
         <v>4638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4471,13 +4465,13 @@
         <v>5941</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4486,13 +4480,13 @@
         <v>10579</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4554,13 @@
         <v>23242</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -4575,13 +4569,13 @@
         <v>20704</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -4590,13 +4584,13 @@
         <v>43946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4605,13 @@
         <v>11133</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4626,13 +4620,13 @@
         <v>11608</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -4641,13 +4635,13 @@
         <v>22740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4709,13 @@
         <v>93253</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>103</v>
@@ -4730,13 +4724,13 @@
         <v>119632</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>197</v>
@@ -4745,13 +4739,13 @@
         <v>212885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4760,13 @@
         <v>34304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -4781,13 +4775,13 @@
         <v>39896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>69</v>
@@ -4796,13 +4790,13 @@
         <v>74200</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4882,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD95887-C90A-4EEC-9785-0E0EF2D78AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF7870D-1C4C-4A22-88B4-7354CA7790D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4899,7 +4893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5006,13 +5000,13 @@
         <v>6851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5021,13 +5015,13 @@
         <v>537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5036,13 +5030,13 @@
         <v>7388</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5051,13 @@
         <v>5990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5072,10 +5066,10 @@
         <v>9195</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -5087,13 +5081,13 @@
         <v>15184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5155,13 @@
         <v>25548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5176,13 +5170,13 @@
         <v>18396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5191,13 +5185,13 @@
         <v>43943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5206,13 @@
         <v>4264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5227,13 +5221,13 @@
         <v>6041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5242,13 +5236,13 @@
         <v>10305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5310,13 @@
         <v>16015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5331,13 +5325,13 @@
         <v>18366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5346,13 +5340,13 @@
         <v>34381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5361,13 @@
         <v>4401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5382,13 +5376,13 @@
         <v>5979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5397,13 +5391,13 @@
         <v>10379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5465,13 @@
         <v>15170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5486,13 +5480,13 @@
         <v>15106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5501,13 +5495,13 @@
         <v>30276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5516,13 @@
         <v>4614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5537,13 +5531,13 @@
         <v>3092</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5552,7 +5546,7 @@
         <v>7706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>373</v>
@@ -6106,13 +6100,13 @@
         <v>12941</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -6121,13 +6115,13 @@
         <v>23172</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6136,13 @@
         <v>23825</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6157,13 +6151,13 @@
         <v>11770</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6172,13 +6166,13 @@
         <v>35595</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6240,13 @@
         <v>117531</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>173</v>
@@ -6261,13 +6255,13 @@
         <v>102065</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>327</v>
@@ -6276,13 +6270,13 @@
         <v>219596</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6291,13 @@
         <v>69210</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -6312,13 +6306,13 @@
         <v>61216</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -6327,13 +6321,13 @@
         <v>130426</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
